--- a/Clustering/Output_Clusters_Asigned_To_Countries/ward_10_weather_df_solar_offshore.xlsx
+++ b/Clustering/Output_Clusters_Asigned_To_Countries/ward_10_weather_df_solar_offshore.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,13 +481,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02616279069767439</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.03548728813559317</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -496,7 +496,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.09223300970873784</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.008916001877053027</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.03662790697674412</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>0.06091101694915243</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>0.09234234234234238</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3252427184466019</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.112189859762675</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1328751431844214</v>
+        <v>0.07479045776918121</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.01621895590471363</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06290672451193073</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1194379391100704</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -589,25 +589,25 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3453777569216338</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1959302325581407</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.178495762711864</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>0.2972972972972971</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1324422843256379</v>
+        <v>0.1311672683513836</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>0.2965144820814914</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -629,22 +629,22 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0191860465116279</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.0233050847457627</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>0.002252252252252252</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.058252427184466</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -660,7 +660,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.02965828497743389</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -694,31 +694,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1435950413223144</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3618019709056789</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.08662790697674398</v>
+        <v>0.4265672950460376</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>0.1254137550570053</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>0.07944915254237273</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3817518248175205</v>
+        <v>0.2252252252252255</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.03883495145631067</v>
+        <v>0.3210603829160519</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -734,7 +734,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>0.02578981302385556</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -768,22 +768,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>0.04962243797195242</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01832760595647193</v>
+        <v>0.0006447453255963894</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>0.1449569183983778</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1619667389732462</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.07025761124121786</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -795,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1140000000000001</v>
+        <v>0.2480857580398166</v>
       </c>
     </row>
     <row r="11">
@@ -842,10 +842,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>0.007551240560949298</v>
       </c>
       <c r="C12" t="n">
-        <v>0.06300114547537235</v>
+        <v>0.03546099290780141</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -857,13 +857,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.01092896174863388</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.002430133657351154</v>
+        <v>0.002406738868832732</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0499999999999999</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>0.04555084745762705</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>0.004504504504504504</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.009708737864077669</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -922,25 +922,25 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1093383388080715</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2034883720930246</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.185381355932203</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0765492102065614</v>
+        <v>0.07581227436823101</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>0.1143838978890522</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -959,13 +959,13 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>0.01571211353269133</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.04121475054229939</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -980,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>0.03981623277182237</v>
       </c>
     </row>
     <row r="16">
@@ -990,28 +990,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>0.03451995685005387</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1420389461626573</v>
+        <v>0.07994842037395229</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.006976744186046512</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04996096799375492</v>
+        <v>0.006355932203389832</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2794653705953832</v>
+        <v>0.2767749699157642</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1036,13 +1036,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004069767441860465</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.004766949152542373</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0.009708737864077669</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1064,10 +1064,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>0.002157497303128371</v>
       </c>
       <c r="C18" t="n">
-        <v>0.003436426116838488</v>
+        <v>0.001934235976789168</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1079,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.00312256049960968</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1110,22 +1110,22 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.09883720930232534</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.09004237288135575</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>0.002252252252252252</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0.004854368932038835</v>
+        <v>0.009327442317133039</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0.02267441860465114</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>0.02171610169491524</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0.009708737864077669</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.04593023255813945</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>0.04184322033898299</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>0.006756756756756757</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0145631067961165</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>0.05879371515458702</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -1255,25 +1255,25 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0.01454716095729704</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0.09941860465116255</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>0.1244703389830506</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>0.123873873873874</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.4271844660194173</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -1286,10 +1286,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>0.006472491909385113</v>
       </c>
       <c r="C24" t="n">
-        <v>0.001145475372279496</v>
+        <v>0.0006447453255963894</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -1301,7 +1301,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.00936768149882904</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1582,28 +1582,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>0.1359223300970873</v>
       </c>
       <c r="C32" t="n">
-        <v>0.2359679266895756</v>
+        <v>0.1328175370728559</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>0.03395843892549421</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1120751988430946</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.128024980483997</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0.1834750911300125</v>
+        <v>0.1817087845968713</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -1619,34 +1619,34 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>0.2211434735706598</v>
       </c>
       <c r="C33" t="n">
-        <v>0.09965635738831609</v>
+        <v>0.05609284332688597</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>0.00456158134820071</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0.07664497469269711</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.3255269320843094</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.004860267314702308</v>
+        <v>0.004813477737665463</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>0.1592649310872894</v>
       </c>
     </row>
     <row r="34">
@@ -1665,13 +1665,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0.003488372093023256</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.003177966101694915</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1720,191 +1720,6 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="inlineStr">
-        <is>
-          <t>Joint regime area Spain / France</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>0</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0.001145475372279496</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0.001215066828675577</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="inlineStr">
-        <is>
-          <t>Joint regime area United Kingdom / Denmark (Faeroe Islands)</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>0</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0.008916001877053027</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="inlineStr">
-        <is>
-          <t>Joint regime area Italy / France</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>0</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="inlineStr">
-        <is>
-          <t>Joint regime area Sweden / Norway</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>0</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0.0005813953488372093</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Joint regime area Croatia / Slovenia</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>0</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
         <v>0</v>
       </c>
     </row>
